--- a/dados/outside/correlation.xlsx
+++ b/dados/outside/correlation.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>novelties</t>
   </si>
@@ -29,6 +29,9 @@
   </si>
   <si>
     <t>num-authors</t>
+  </si>
+  <si>
+    <t>matches</t>
   </si>
 </sst>
 </file>
@@ -386,13 +389,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -408,8 +411,11 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,95 +423,133 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.9040078641792868</v>
+        <v>0.9040078641792846</v>
       </c>
       <c r="D2">
-        <v>0.1945708066818534</v>
+        <v>0.1945708066818527</v>
       </c>
       <c r="E2">
-        <v>-0.006335799401027796</v>
+        <v>-0.006335799401027683</v>
       </c>
       <c r="F2">
-        <v>0.06987153312891271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.06987153312891312</v>
+      </c>
+      <c r="G2">
+        <v>0.01531807470000127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9040078641792868</v>
+        <v>0.9040078641792846</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-0.2431526584668566</v>
+        <v>-0.2431526584668562</v>
       </c>
       <c r="E3">
-        <v>-0.009175313755696451</v>
+        <v>-0.009175313755696229</v>
       </c>
       <c r="F3">
-        <v>0.04383727204262512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.04383727204262428</v>
+      </c>
+      <c r="G3">
+        <v>0.02496884796283106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1945708066818534</v>
+        <v>0.1945708066818527</v>
       </c>
       <c r="C4">
-        <v>-0.2431526584668566</v>
+        <v>-0.2431526584668562</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.005033917950680866</v>
+        <v>0.005033917950680786</v>
       </c>
       <c r="F4">
-        <v>0.05656725112005902</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05656725112005842</v>
+      </c>
+      <c r="G4">
+        <v>-0.02257951286301573</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.006335799401027796</v>
+        <v>-0.006335799401027683</v>
       </c>
       <c r="C5">
-        <v>-0.009175313755696451</v>
+        <v>-0.009175313755696229</v>
       </c>
       <c r="D5">
-        <v>0.005033917950680866</v>
+        <v>0.005033917950680786</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.01621164581190381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.01621164581190404</v>
+      </c>
+      <c r="G5">
+        <v>0.008348263284650258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06987153312891271</v>
+        <v>0.06987153312891312</v>
       </c>
       <c r="C6">
-        <v>0.04383727204262512</v>
+        <v>0.04383727204262428</v>
       </c>
       <c r="D6">
-        <v>0.05656725112005902</v>
+        <v>0.05656725112005842</v>
       </c>
       <c r="E6">
-        <v>0.01621164581190381</v>
+        <v>0.01621164581190404</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.05553982951793147</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.01531807470000127</v>
+      </c>
+      <c r="C7">
+        <v>0.02496884796283106</v>
+      </c>
+      <c r="D7">
+        <v>-0.02257951286301573</v>
+      </c>
+      <c r="E7">
+        <v>0.008348263284650258</v>
+      </c>
+      <c r="F7">
+        <v>0.05553982951793147</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
